--- a/Task Breakdown Sample.xlsx
+++ b/Task Breakdown Sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17385" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Total Completed</t>
   </si>
@@ -82,19 +82,43 @@
     <t>End</t>
   </si>
   <si>
-    <t>design table boat (admin)</t>
-  </si>
-  <si>
-    <t>Desing page boat (admin)</t>
-  </si>
-  <si>
-    <t>loging page (editor)</t>
-  </si>
-  <si>
-    <t>loging error page (editor)</t>
-  </si>
-  <si>
-    <t>add supplier and Reprot to all pages</t>
+    <t>1.1 Create employee data</t>
+  </si>
+  <si>
+    <t>1.2 Create admin data</t>
+  </si>
+  <si>
+    <t>1. Login</t>
+  </si>
+  <si>
+    <t>Design database</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
+    <t>Currency exchange</t>
+  </si>
+  <si>
+    <t>Passport and Visa</t>
+  </si>
+  <si>
+    <t>User authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Add user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Valilate user</t>
+  </si>
+  <si>
+    <t>All these task don't include mockup</t>
+  </si>
+  <si>
+    <t>Set up dashboard</t>
+  </si>
+  <si>
+    <t>1. Analyse system architecture</t>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -176,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -196,7 +220,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,17 +549,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -548,22 +573,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="2">
         <f>I2+I3</f>
-        <v>5.6798414374720956E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="18">
         <f ca="1">NOW()</f>
-        <v>42254.715511342591</v>
+        <v>42255.571859027776</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -598,7 +635,7 @@
       </c>
       <c r="I3" s="4">
         <f>SUM(J5:J17)</f>
-        <v>5.6798414374720956E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -642,24 +679,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="10"/>
+      <c r="F5" s="5" t="e">
         <f t="shared" ref="F5:F54" si="0">IFERROR((D5-E5)/$D$56,I5)</f>
-        <v>-2.3666005989467304E-4</v>
-      </c>
-      <c r="I5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="4" t="e">
         <f t="shared" ref="I5:I54" si="1">D5/$D$56</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="4" t="str">
         <f>IF(IF((D5-E5)=0,"",(I5-F5))=0,"",IF((D5-E5)=0,"",(I5-F5)))</f>
-        <v>2.3666005989467304E-4</v>
+        <v/>
       </c>
       <c r="K5" s="10">
         <f>IF(D5&gt;C5,(C5-D5)*24,IF(C5="",(C5-D5)*24,IF(H5="done",(C5-D5)*24,(""))))</f>
@@ -671,57 +706,49 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="18">
-        <v>42254.69962615741</v>
-      </c>
-      <c r="D6" s="18">
-        <v>42254.700706365744</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.99995266798802107</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="4" t="str">
         <f t="shared" ref="J6:J17" si="2">IF(IF((D6-E6)=0,"",(I6-F6))=0,"",IF((D6-E6)=0,"",(I6-F6)))</f>
-        <v>4.733201197892889E-5</v>
+        <v/>
       </c>
       <c r="K6" s="10">
         <f t="shared" ref="K6:K16" si="3">IF(D6&gt;C6,(C6-D6)*24,IF(C6="",(C6-D6)*24,IF(H6="done",(C6-D6)*24,(""))))</f>
-        <v>-2.5925000023562461E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="10">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.6566204192627112E-4</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="E7" s="10"/>
+      <c r="F7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>1.6566204192627112E-4</v>
+        <v/>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="3"/>
@@ -734,17 +761,19 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -762,24 +791,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.1833002994733652E-4</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="E9" s="10"/>
+      <c r="F9" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>1.1833002994733652E-4</v>
+        <v/>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="3"/>
@@ -791,32 +818,30 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="18">
-        <v>42254.715249305555</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="18">
         <f ca="1">NOW()</f>
-        <v>42254.715511342591</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42255.571859027776</v>
+      </c>
+      <c r="I10" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -824,16 +849,19 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F11" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="2"/>
@@ -848,16 +876,16 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -872,16 +900,16 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -896,16 +924,16 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -922,16 +950,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -947,16 +975,16 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -972,16 +1000,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="2"/>
@@ -993,16 +1021,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1011,16 +1039,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1029,16 +1057,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F20" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1047,16 +1075,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1065,16 +1093,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F22" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1083,16 +1111,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F23" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1101,16 +1129,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F24" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1119,16 +1147,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F25" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1137,16 +1165,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F26" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1155,16 +1183,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F27" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1173,16 +1201,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F28" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -1191,16 +1219,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F29" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -1209,16 +1237,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F30" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1227,16 +1255,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F31" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -1245,16 +1273,16 @@
         <v>28</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F32" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1263,16 +1291,16 @@
         <v>29</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F33" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -1281,16 +1309,16 @@
         <v>30</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F34" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -1299,16 +1327,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F35" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -1317,16 +1345,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F36" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J36" s="4"/>
     </row>
@@ -1335,16 +1363,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F37" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J37" s="4"/>
     </row>
@@ -1353,16 +1381,16 @@
         <v>34</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F38" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -1374,13 +1402,13 @@
       <c r="C39" s="14"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F39" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -1392,13 +1420,13 @@
       <c r="C40" s="14"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F40" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J40" s="4"/>
     </row>
@@ -1410,13 +1438,13 @@
       <c r="C41" s="14"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F41" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J41" s="4"/>
     </row>
@@ -1428,13 +1456,13 @@
       <c r="C42" s="14"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F42" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -1446,13 +1474,13 @@
       <c r="C43" s="14"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F43" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -1464,13 +1492,13 @@
       <c r="C44" s="14"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F44" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -1482,13 +1510,13 @@
       <c r="C45" s="14"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F45" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -1500,13 +1528,13 @@
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F46" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -1518,13 +1546,13 @@
       <c r="C47" s="14"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F47" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -1536,13 +1564,13 @@
       <c r="C48" s="14"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F48" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -1554,13 +1582,13 @@
       <c r="C49" s="14"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F49" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -1572,13 +1600,13 @@
       <c r="C50" s="14"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F50" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -1590,13 +1618,13 @@
       <c r="C51" s="14"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F51" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -1608,13 +1636,13 @@
       <c r="C52" s="14"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F52" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -1626,13 +1654,13 @@
       <c r="C53" s="14"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F53" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -1644,13 +1672,13 @@
       <c r="C54" s="14"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F54" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J54" s="4"/>
     </row>
@@ -1665,25 +1693,25 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D56" s="9">
         <f>SUM(D5:D17)</f>
-        <v>42254.700706365744</v>
+        <v>0</v>
       </c>
       <c r="E56" s="9">
         <f>SUM(E5:E17)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F56" s="9"/>
-      <c r="I56" s="4">
+      <c r="I56" s="4" t="e">
         <f>SUM(I5:I17)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D57" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="4" t="e">
         <f>(D56-E56)/D56</f>
-        <v>0.99943201585625274</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -1712,7 +1740,27 @@
       </c>
       <c r="E60" s="17">
         <f>(E56*24)+D59+D60</f>
-        <v>578.9</v>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Task Breakdown Sample.xlsx
+++ b/Task Breakdown Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
   <si>
     <t>Total Completed</t>
   </si>
@@ -61,21 +61,9 @@
     <t>Late/on time</t>
   </si>
   <si>
-    <t>Remain</t>
-  </si>
-  <si>
-    <t>***Note</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Hong excel</t>
-  </si>
-  <si>
-    <t>Vaneth excel</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>1. Login</t>
   </si>
   <si>
-    <t>Design database</t>
-  </si>
-  <si>
     <t>Tour</t>
   </si>
   <si>
@@ -103,31 +88,348 @@
     <t>Passport and Visa</t>
   </si>
   <si>
-    <t>User authentication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Add user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Valilate user</t>
-  </si>
-  <si>
-    <t>All these task don't include mockup</t>
-  </si>
-  <si>
     <t>Set up dashboard</t>
   </si>
   <si>
-    <t>1. Analyse system architecture</t>
+    <t>Analyze Tour, currency exchange and ticket</t>
+  </si>
+  <si>
+    <t>I Admin side</t>
+  </si>
+  <si>
+    <t>Analyze system architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRUD user </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validate user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mockup</t>
+  </si>
+  <si>
+    <t>Set general</t>
+  </si>
+  <si>
+    <t>Set by office</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>Create Employee</t>
+  </si>
+  <si>
+    <t>Search employee</t>
+  </si>
+  <si>
+    <t>Filter by category</t>
+  </si>
+  <si>
+    <t>Filter by office</t>
+  </si>
+  <si>
+    <t>CRUD employee</t>
+  </si>
+  <si>
+    <t>Email to employee</t>
+  </si>
+  <si>
+    <t>Export to excel file</t>
+  </si>
+  <si>
+    <t>Import to excel file</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Create suppliers</t>
+  </si>
+  <si>
+    <t>Search customer</t>
+  </si>
+  <si>
+    <t>Filter by service type</t>
+  </si>
+  <si>
+    <t>CRUD suppliers</t>
+  </si>
+  <si>
+    <t>Email to suppliers</t>
+  </si>
+  <si>
+    <t>Export to excel</t>
+  </si>
+  <si>
+    <t>Import to excel</t>
+  </si>
+  <si>
+    <t>Create Customer</t>
+  </si>
+  <si>
+    <t>CRUD customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mockup </t>
+  </si>
+  <si>
+    <t>Create Destination</t>
+  </si>
+  <si>
+    <t>Search destination</t>
+  </si>
+  <si>
+    <t>CRUD destination</t>
+  </si>
+  <si>
+    <t>Pagination destination</t>
+  </si>
+  <si>
+    <t>Private Service</t>
+  </si>
+  <si>
+    <t>Search service</t>
+  </si>
+  <si>
+    <t>CRUD service</t>
+  </si>
+  <si>
+    <t>Import from excel</t>
+  </si>
+  <si>
+    <t>Mockup all pages related to tour</t>
+  </si>
+  <si>
+    <t>Packet service</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>CRUD Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale </t>
+  </si>
+  <si>
+    <t>Filter by date</t>
+  </si>
+  <si>
+    <t>Filter by subcategories (private, packet, other)</t>
+  </si>
+  <si>
+    <t>Email to client bought that service</t>
+  </si>
+  <si>
+    <t>CRUD sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Broke up commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receptionist commission  </t>
+  </si>
+  <si>
+    <t>Create Currency</t>
+  </si>
+  <si>
+    <t>Quick search</t>
+  </si>
+  <si>
+    <t>CRUD currency</t>
+  </si>
+  <si>
+    <t>Import to Excel</t>
+  </si>
+  <si>
+    <t>Create currency Exchange</t>
+  </si>
+  <si>
+    <t>CRUD currency rate exchange</t>
+  </si>
+  <si>
+    <t>Sale currency</t>
+  </si>
+  <si>
+    <t>Filter by currency</t>
+  </si>
+  <si>
+    <t>CRUD currency exchange</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>CRUD visa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport </t>
+  </si>
+  <si>
+    <t>CRUD passport</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Customer report</t>
+  </si>
+  <si>
+    <t>Filter by service</t>
+  </si>
+  <si>
+    <t>Filter by cooperation year</t>
+  </si>
+  <si>
+    <t>Mockup report</t>
+  </si>
+  <si>
+    <t>Print report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee </t>
+  </si>
+  <si>
+    <t>Filter by role (supervisor, receptionist,)</t>
+  </si>
+  <si>
+    <t>Filter by number of year work</t>
+  </si>
+  <si>
+    <t>Filter by salary</t>
+  </si>
+  <si>
+    <t>Filter by sex</t>
+  </si>
+  <si>
+    <t>Filter by married status (single ,married,…)</t>
+  </si>
+  <si>
+    <t>Filter by term (full time, part time)</t>
+  </si>
+  <si>
+    <t>Supplier report</t>
+  </si>
+  <si>
+    <t>Sale report</t>
+  </si>
+  <si>
+    <t>Filter by transportation type</t>
+  </si>
+  <si>
+    <t>Filter by destination</t>
+  </si>
+  <si>
+    <t>Mock up report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency </t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income, outcome </t>
+  </si>
+  <si>
+    <t>Filter by Service (tour, ticket, Visa Passport,…)</t>
+  </si>
+  <si>
+    <t>Filter by sub service ( private, packet, …)</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>II. Client side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up dashboard </t>
+  </si>
+  <si>
+    <t>Mockup interface, depending on role (How many roles ?)</t>
+  </si>
+  <si>
+    <t>Set up total items were sale by them</t>
+  </si>
+  <si>
+    <t>Set up kind of service which they can operate</t>
+  </si>
+  <si>
+    <t>Switch office</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Filter service</t>
+  </si>
+  <si>
+    <t>View detail information</t>
+  </si>
+  <si>
+    <t>Mock up</t>
+  </si>
+  <si>
+    <t>Private service</t>
+  </si>
+  <si>
+    <t>Other service</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Search currency</t>
+  </si>
+  <si>
+    <t>View all currency rate exchange</t>
+  </si>
+  <si>
+    <t>Visa and visa</t>
+  </si>
+  <si>
+    <t>Filter service type (passport or visa)</t>
+  </si>
+  <si>
+    <t>View service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagination  </t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Filter service type</t>
+  </si>
+  <si>
+    <t>Search sale item</t>
+  </si>
+  <si>
+    <t>CRUD sale item</t>
+  </si>
+  <si>
+    <t>Notification to admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -200,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -216,12 +518,53 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,16 +892,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -573,14 +916,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
+      <c r="B1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -595,12 +938,13 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="17">
         <f ca="1">NOW()</f>
-        <v>42255.571859027776</v>
+        <v>42256.493580092596</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -622,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -678,19 +1022,19 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="F5" s="5" t="e">
-        <f t="shared" ref="F5:F54" si="0">IFERROR((D5-E5)/$D$56,I5)</f>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D5-E5)/$B$56,I5)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I5" s="4" t="e">
-        <f t="shared" ref="I5:I54" si="1">D5/$D$56</f>
-        <v>#DIV/0!</v>
+        <f>D5/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>IF(IF((D5-E5)=0,"",(I5-F5))=0,"",IF((D5-E5)=0,"",(I5-F5)))</f>
@@ -705,26 +1049,26 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
+      <c r="B6" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="10"/>
       <c r="F6" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D6-E6)/$B$56,I6)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I6" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D6/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" ref="J6:J17" si="2">IF(IF((D6-E6)=0,"",(I6-F6))=0,"",IF((D6-E6)=0,"",(I6-F6)))</f>
+        <f t="shared" ref="J6:J17" si="0">IF(IF((D6-E6)=0,"",(I6-F6))=0,"",IF((D6-E6)=0,"",(I6-F6)))</f>
         <v/>
       </c>
       <c r="K6" s="10">
-        <f t="shared" ref="K6:K16" si="3">IF(D6&gt;C6,(C6-D6)*24,IF(C6="",(C6-D6)*24,IF(H6="done",(C6-D6)*24,(""))))</f>
+        <f t="shared" ref="K6:K16" si="1">IF(D6&gt;C6,(C6-D6)*24,IF(C6="",(C6-D6)*24,IF(H6="done",(C6-D6)*24,(""))))</f>
         <v>0</v>
       </c>
     </row>
@@ -732,26 +1076,26 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
+      <c r="B7" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="5" t="e">
+        <f>IFERROR((D7-E7)/$B$56,I7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="4" t="e">
+        <f>D7/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K7" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L7" s="4"/>
@@ -761,26 +1105,26 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
+      <c r="B8" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="5" t="e">
+        <f>IFERROR((D8-E8)/$B$56,I8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="4" t="e">
+        <f>D8/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L8" s="12"/>
@@ -790,26 +1134,26 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
+      <c r="B9" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="5" t="e">
+        <f>IFERROR((D9-E9)/$B$56,I9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="4" t="e">
+        <f>D9/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -817,30 +1161,30 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="B10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="5" t="e">
+        <f>IFERROR((D10-E10)/$B$56,I10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="17">
+        <f ca="1">NOW()</f>
+        <v>42256.493580092596</v>
+      </c>
+      <c r="I10" s="4" t="e">
+        <f>D10/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="18">
-        <f ca="1">NOW()</f>
-        <v>42255.571859027776</v>
-      </c>
-      <c r="I10" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K10" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K10" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10" s="4"/>
@@ -849,50 +1193,53 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
+      <c r="B11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="5" t="e">
+        <f>IFERROR((D11-E11)/$B$56,I11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="4" t="e">
+        <f>D11/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="5" t="e">
+        <f>IFERROR((D12-E12)/$B$56,I12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="4" t="e">
+        <f>D12/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K12" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -900,23 +1247,25 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="5" t="e">
+        <f>IFERROR((D13-E13)/$B$56,I13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="4" t="e">
+        <f>D13/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K13" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -924,24 +1273,26 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="B14" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="5" t="e">
+        <f>IFERROR((D14-E14)/$B$56,I14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="4" t="e">
+        <f>D14/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K14" s="10" t="str">
+        <f>IF(D14&gt;B14,(B14-D14)*24,IF(B14="",(B14-D14)*24,IF(H14="done",(B14-D14)*24,(""))))</f>
+        <v/>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -949,49 +1300,53 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="5" t="e">
+        <f>IFERROR((D15-E15)/$B$56,I15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="4" t="e">
+        <f>D15/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="K15" s="10" t="str">
+        <f>IF(D15&gt;B15,(B15-D15)*24,IF(B15="",(B15-D15)*24,IF(H15="done",(B15-D15)*24,(""))))</f>
+        <v/>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="5" t="e">
+        <f>IFERROR((D16-E16)/$B$56,I16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="4" t="e">
+        <f>D16/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="4" t="e">
+        <v/>
+      </c>
+      <c r="K16" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -999,20 +1354,21 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="5" t="e">
+        <f>IFERROR((D17-E17)/$B$56,I17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="4" t="e">
+        <f>D17/$B$56</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1020,17 +1376,18 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D18-E18)/$B$56,I18)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I18" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D18/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1038,17 +1395,18 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
       <c r="F19" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D19-E19)/$B$56,I19)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I19" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D19/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1056,17 +1414,18 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D20-E20)/$B$56,I20)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I20" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D20/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1074,17 +1433,18 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D21-E21)/$B$56,I21)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I21" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D21/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1092,17 +1452,18 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D22-E22)/$B$56,I22)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I22" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D22/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1110,17 +1471,18 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D23-E23)/$B$56,I23)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I23" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D23/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1128,17 +1490,18 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D24-E24)/$B$56,I24)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I24" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D24/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1146,17 +1509,18 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D25-E25)/$B$56,I25)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I25" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D25/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1164,17 +1528,19 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D26-E26)/$B$56,I26)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D26/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1182,17 +1548,18 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D27-E27)/$B$56,I27)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D27/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1200,17 +1567,18 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D28-E28)/$B$56,I28)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D28/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -1218,17 +1586,18 @@
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D29-E29)/$B$56,I29)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D29/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -1236,17 +1605,18 @@
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D30-E30)/$B$56,I30)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I30" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D30/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1254,17 +1624,18 @@
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D31-E31)/$B$56,I31)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D31/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -1272,17 +1643,18 @@
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D32-E32)/$B$56,I32)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D32/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1290,17 +1662,18 @@
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D33-E33)/$B$56,I33)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D33/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -1308,17 +1681,18 @@
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D34-E34)/$B$56,I34)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D34/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -1326,17 +1700,19 @@
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="19"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D35-E35)/$B$56,I35)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D35/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -1344,17 +1720,18 @@
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D36-E36)/$B$56,I36)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I36" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D36/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J36" s="4"/>
     </row>
@@ -1362,17 +1739,18 @@
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D37-E37)/$B$56,I37)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I37" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D37/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J37" s="4"/>
     </row>
@@ -1380,17 +1758,18 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D38-E38)/$B$56,I38)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I38" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D38/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -1398,17 +1777,18 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D39-E39)/$B$56,I39)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D39/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -1416,17 +1796,18 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D40-E40)/$B$56,I40)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I40" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D40/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J40" s="4"/>
     </row>
@@ -1434,17 +1815,18 @@
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D41-E41)/$B$56,I41)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I41" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D41/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J41" s="4"/>
     </row>
@@ -1452,17 +1834,18 @@
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D42-E42)/$B$56,I42)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I42" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D42/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -1470,17 +1853,18 @@
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D43-E43)/$B$56,I43)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I43" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D43/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -1488,17 +1872,19 @@
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C44" s="14"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D44-E44)/$B$56,I44)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I44" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D44/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -1506,17 +1892,18 @@
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D45-E45)/$B$56,I45)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I45" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D45/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -1524,17 +1911,18 @@
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D46-E46)/$B$56,I46)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I46" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D46/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -1542,17 +1930,18 @@
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D47-E47)/$B$56,I47)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I47" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D47/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -1560,17 +1949,18 @@
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D48-E48)/$B$56,I48)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I48" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D48/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -1578,17 +1968,18 @@
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D49-E49)/$B$56,I49)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I49" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D49/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -1596,17 +1987,18 @@
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D50-E50)/$B$56,I50)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I50" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D50/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -1614,17 +2006,19 @@
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="C51" s="14"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D51-E51)/$B$56,I51)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I51" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D51/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -1632,17 +2026,19 @@
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
       <c r="C52" s="14"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D52-E52)/$B$56,I52)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I52" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D52/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -1650,17 +2046,17 @@
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((D53-E53)/$B$56,I53)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I53" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>D53/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -1668,32 +2064,37 @@
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>IFERROR((B54-E54)/$B$56,I54)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I54" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>B54/$B$56</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="9"/>
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D56" s="9">
-        <f>SUM(D5:D17)</f>
-        <v>0</v>
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="9">
         <f>SUM(E5:E17)</f>
@@ -1702,65 +2103,1330 @@
       <c r="F56" s="9"/>
       <c r="I56" s="4" t="e">
         <f>SUM(I5:I17)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="15" t="s">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="4" t="e">
+        <f>(B56-E56)/B56</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="4" t="e">
-        <f>(D56-E56)/D56</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="16" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="16" t="e">
+        <f>(E56*24)+D59+B60</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" t="s">
         <v>18</v>
       </c>
-      <c r="D59">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D60">
-        <v>0.4</v>
-      </c>
-      <c r="E60" s="17">
-        <f>(E56*24)+D59+D60</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="F76" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="20"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>111</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>112</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>113</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>114</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>115</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>116</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>119</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>120</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>121</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>125</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>127</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>128</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>129</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>130</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>131</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>132</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>133</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>135</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>139</v>
+      </c>
+      <c r="B143" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>140</v>
+      </c>
+      <c r="B144" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>141</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>142</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>143</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>144</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>145</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>146</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>148</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>149</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>150</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>151</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>152</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>153</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>154</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>155</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>156</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>157</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>158</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>159</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>166</v>
+      </c>
+      <c r="B170" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>167</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>168</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>170</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>171</v>
+      </c>
+      <c r="B175" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>172</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>173</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>174</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>175</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>176</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>177</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>178</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>179</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>180</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>181</v>
+      </c>
+      <c r="B185" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>182</v>
+      </c>
+      <c r="B186" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>183</v>
+      </c>
+      <c r="B187" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>184</v>
+      </c>
+      <c r="B188" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>185</v>
+      </c>
+      <c r="B189" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>186</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>187</v>
+      </c>
+      <c r="B191" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>188</v>
+      </c>
+      <c r="B192" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>189</v>
+      </c>
+      <c r="B193" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>190</v>
+      </c>
+      <c r="B194" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>191</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>192</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>193</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>194</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>195</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>196</v>
+      </c>
+      <c r="B200" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>197</v>
+      </c>
+      <c r="B201" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>198</v>
+      </c>
+      <c r="B202" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>199</v>
+      </c>
+      <c r="B203" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>200</v>
+      </c>
+      <c r="B204" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>201</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>202</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>203</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>204</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>205</v>
+      </c>
+      <c r="B209" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>206</v>
+      </c>
+      <c r="B210" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>207</v>
+      </c>
+      <c r="B211" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>208</v>
+      </c>
+      <c r="B212" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>209</v>
+      </c>
+      <c r="B213" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>210</v>
+      </c>
+      <c r="B214" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>211</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>212</v>
+      </c>
+      <c r="B216" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
